--- a/Assets/Configurations/Designer.xlsx
+++ b/Assets/Configurations/Designer.xlsx
@@ -4,24 +4,24 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18000" windowHeight="9690" activeTab="2"/>
+    <workbookView windowWidth="18240" windowHeight="10275" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
     <sheet name="CharacterList" sheetId="2" r:id="rId2"/>
     <sheet name="Character" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525" calcCompleted="0" calcOnSave="0" fullPrecision="0" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
   <si>
     <t>Global</t>
   </si>
   <si>
-    <t>value</t>
+    <t>Value</t>
   </si>
   <si>
     <t>EntryPoint</t>
@@ -33,9 +33,21 @@
     <t>Port</t>
   </si>
   <si>
+    <t>8080</t>
+  </si>
+  <si>
     <t>Gravity</t>
   </si>
   <si>
+    <t>9.8</t>
+  </si>
+  <si>
+    <t>AttackRange</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
     <t>MomList</t>
   </si>
   <si>
@@ -45,40 +57,46 @@
     <t>EagleList</t>
   </si>
   <si>
+    <t>Local</t>
+  </si>
+  <si>
+    <t>CharacterName</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>MoveSpeed</t>
+  </si>
+  <si>
+    <t>Mass</t>
+  </si>
+  <si>
+    <t>JumpSpeeds</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>Character Name</t>
+  </si>
+  <si>
+    <t>Character Description</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
     <t>BlackBoss</t>
   </si>
   <si>
-    <t>Local</t>
-  </si>
-  <si>
-    <t>CharacterName</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>MoveSpeed</t>
-  </si>
-  <si>
-    <t>Mass</t>
-  </si>
-  <si>
-    <t>JumpSpeeds</t>
+    <t>黑团团</t>
   </si>
   <si>
     <t>ExampleValue</t>
-  </si>
-  <si>
-    <t>Character Name</t>
-  </si>
-  <si>
-    <t>Character Description</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>黑团团</t>
   </si>
 </sst>
 </file>
@@ -88,10 +106,10 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -108,54 +126,61 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -171,7 +196,7 @@
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -195,7 +220,7 @@
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -203,7 +228,7 @@
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -211,14 +236,14 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -226,21 +251,21 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -546,162 +571,156 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1023,17 +1042,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
-  <cols>
-    <col min="1" max="1" width="20.125" customWidth="1"/>
-    <col min="2" max="2" width="28.25" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -1055,16 +1070,24 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
-        <v>8050</v>
+      <c r="B3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>9.80000019073486</v>
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1079,14 +1102,10 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
-  <cols>
-    <col min="1" max="1" width="16.875" customWidth="1"/>
-    <col min="2" max="2" width="15.25" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -1098,20 +1117,17 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1123,79 +1139,92 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
-  <cols>
-    <col min="1" max="1" width="23.625" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="22.5" customWidth="1"/>
-    <col min="4" max="4" width="36.375" customWidth="1"/>
-    <col min="6" max="6" width="14.5833333333333" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2">
-        <v>6</v>
-      </c>
-      <c r="E2">
-        <v>50</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3">
-        <v>4</v>
-      </c>
-      <c r="E3">
-        <v>50</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>19</v>
+      <c r="F4" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Configurations/Designer.xlsx
+++ b/Assets/Configurations/Designer.xlsx
@@ -106,8 +106,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -571,7 +571,7 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -586,16 +586,16 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1142,7 +1142,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
@@ -1198,7 +1198,7 @@
         <v>25</v>
       </c>
       <c r="D3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>

--- a/Assets/Configurations/Designer.xlsx
+++ b/Assets/Configurations/Designer.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <workbookPr autoCompressPictures="1"/>
   <bookViews>
     <workbookView windowWidth="18240" windowHeight="10275" activeTab="2"/>
   </bookViews>
@@ -10,93 +10,100 @@
     <sheet name="Global" sheetId="1" r:id="rId1"/>
     <sheet name="CharacterList" sheetId="2" r:id="rId2"/>
     <sheet name="Character" sheetId="3" r:id="rId3"/>
+    <sheet name="NetworkPrefab" sheetId="4" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" calcMode="auto" fullCalcOnLoad="0" refMode="A1" iterate="0" fullPrecision="0" calcCompleted="0" calcOnSave="0" concurrentCalc="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
-  <si>
-    <t>Global</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>EntryPoint</t>
-  </si>
-  <si>
-    <t>http://test</t>
-  </si>
-  <si>
-    <t>Port</t>
-  </si>
-  <si>
-    <t>8080</t>
-  </si>
-  <si>
-    <t>Gravity</t>
-  </si>
-  <si>
-    <t>9.8</t>
-  </si>
-  <si>
-    <t>AttackRange</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>MomList</t>
-  </si>
-  <si>
-    <t>BabyList</t>
-  </si>
-  <si>
-    <t>EagleList</t>
-  </si>
-  <si>
-    <t>Local</t>
-  </si>
-  <si>
-    <t>CharacterName</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>MoveSpeed</t>
-  </si>
-  <si>
-    <t>Mass</t>
-  </si>
-  <si>
-    <t>JumpSpeeds</t>
-  </si>
-  <si>
-    <t>default</t>
-  </si>
-  <si>
-    <t>Character Name</t>
-  </si>
-  <si>
-    <t>Character Description</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>BlackBoss</t>
-  </si>
-  <si>
-    <t>黑团团</t>
-  </si>
-  <si>
-    <t>ExampleValue</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="29">
+  <si>
+    <t xml:space="preserve">Global</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EntryPoint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Port</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8080</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gravity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AttackRange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MomList</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BabyList</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EagleList</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Local</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CharacterName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MoveSpeed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JumpSpeeds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">default</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Character Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Character Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BlackBoss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">黑团团</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ExampleValue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prefabIDMap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"Name":"FireBuffExample","ID":2093473897,"Path":"Assets/Prefabs/Buff/FireBuffExample.prefab"}|{"Name":"IceBuffExample","ID":2737803754,"Path":"Assets/Prefabs/Buff/IceBuffExample.prefab"}|{"Name":"FireBall","ID":3298020442,"Path":"Assets/Prefabs/Bullet/FireBall.prefab"}|{"Name":"BlackBoss","ID":3552132377,"Path":"Assets/Prefabs/Characters/BlackBoss.prefab"}|{"Name":"Baby","ID":3019281079,"Path":"Assets/Prefabs/Charactor/Baby.prefab"}|{"Name":"Character","ID":4133940207,"Path":"Assets/Prefabs/Charactor/Character.prefab"}|{"Name":"CharacterExample","ID":504623618,"Path":"Assets/Prefabs/Charactor/CharacterExample.prefab"}|{"Name":"Eagle","ID":3103489466,"Path":"Assets/Prefabs/Charactor/Eagle.prefab"}|{"Name":"Mom","ID":328946675,"Path":"Assets/Prefabs/Charactor/Mom.prefab"}|{"Name":"MyTestPlayer","ID":2239586818,"Path":"Assets/Prefabs/Charactor/MyTestPlayer.prefab"}|{"Name":"Player","ID":2100708268,"Path":"Assets/Prefabs/Charactor/Player.prefab"}|{"Name":"EmptyPlayer 1","ID":619005188,"Path":"Assets/Prefabs/CharactorV2/EmptyPlayer 1.prefab"}|{"Name":"EmptyPlayer","ID":320469304,"Path":"Assets/Prefabs/CharactorV2/EmptyPlayer.prefab"}|{"Name":"BurnBuff","ID":2235642898,"Path":"Assets/Prefabs/Example/BurnBuff.prefab"}|{"Name":"EagleExample","ID":3555599939,"Path":"Assets/Prefabs/Example/EagleExample.prefab"}|{"Name":"FireBallEagleExample","ID":1096054513,"Path":"Assets/Prefabs/Example/FireBallEagleExample.prefab"}|{"Name":"FireBallMomExample","ID":1681392008,"Path":"Assets/Prefabs/Example/FireBallMomExample.prefab"}|{"Name":"MomExample","ID":3273369817,"Path":"Assets/Prefabs/Example/MomExample.prefab"}|{"Name":"PlayerExample","ID":749872214,"Path":"Assets/Prefabs/Example/PlayerExample.prefab"}|{"Name":"SlowDownBuff","ID":1958464012,"Path":"Assets/Prefabs/Example/SlowDownBuff.prefab"}|{"Name":"PlayerController","ID":1476681251,"Path":"Assets/Prefabs/PlayerController.prefab"}</t>
   </si>
 </sst>
 </file>
@@ -128,44 +135,44 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
+      <charset/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u val="single"/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
+      <charset/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u val="single"/>
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -180,7 +187,7 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -196,7 +203,7 @@
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -220,7 +227,7 @@
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -228,7 +235,7 @@
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -236,14 +243,14 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -251,21 +258,21 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -571,156 +578,156 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" xfId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -777,8 +784,8 @@
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1040,7 +1047,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -1097,7 +1104,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -1119,16 +1126,19 @@
       <c r="A2" t="s">
         <v>10</v>
       </c>
+      <c r="B2"/>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>11</v>
       </c>
+      <c r="B3"/>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>12</v>
       </c>
+      <c r="B4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1137,12 +1147,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
@@ -1197,8 +1207,8 @@
       <c r="C3" t="s">
         <v>25</v>
       </c>
-      <c r="D3">
-        <v>0</v>
+      <c r="D3" t="s">
+        <v>22</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -1231,4 +1241,33 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showRuler="1" showOutlineSymbols="1" defaultGridColor="1" colorId="64" zoomScale="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Assets/Configurations/Designer.xlsx
+++ b/Assets/Configurations/Designer.xlsx
@@ -2,119 +2,110 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr autoCompressPictures="1"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18240" windowHeight="10275" activeTab="2"/>
+    <workbookView windowWidth="17340" windowHeight="11895" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="1" r:id="rId1"/>
     <sheet name="CharacterList" sheetId="2" r:id="rId2"/>
     <sheet name="Character" sheetId="3" r:id="rId3"/>
-    <sheet name="NetworkPrefab" sheetId="4" r:id="rId7"/>
+    <sheet name="NetworkPrefab" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525" calcMode="auto" fullCalcOnLoad="0" refMode="A1" iterate="0" fullPrecision="0" calcCompleted="0" calcOnSave="0" concurrentCalc="0" forceFullCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="29">
-  <si>
-    <t xml:space="preserve">Global</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EntryPoint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Port</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8080</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gravity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AttackRange</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MomList</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BabyList</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EagleList</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Local</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CharacterName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MoveSpeed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JumpSpeeds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">default</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Character Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Character Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BlackBoss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">黑团团</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ExampleValue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prefabIDMap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"Name":"FireBuffExample","ID":2093473897,"Path":"Assets/Prefabs/Buff/FireBuffExample.prefab"}|{"Name":"IceBuffExample","ID":2737803754,"Path":"Assets/Prefabs/Buff/IceBuffExample.prefab"}|{"Name":"FireBall","ID":3298020442,"Path":"Assets/Prefabs/Bullet/FireBall.prefab"}|{"Name":"BlackBoss","ID":3552132377,"Path":"Assets/Prefabs/Characters/BlackBoss.prefab"}|{"Name":"Baby","ID":3019281079,"Path":"Assets/Prefabs/Charactor/Baby.prefab"}|{"Name":"Character","ID":4133940207,"Path":"Assets/Prefabs/Charactor/Character.prefab"}|{"Name":"CharacterExample","ID":504623618,"Path":"Assets/Prefabs/Charactor/CharacterExample.prefab"}|{"Name":"Eagle","ID":3103489466,"Path":"Assets/Prefabs/Charactor/Eagle.prefab"}|{"Name":"Mom","ID":328946675,"Path":"Assets/Prefabs/Charactor/Mom.prefab"}|{"Name":"MyTestPlayer","ID":2239586818,"Path":"Assets/Prefabs/Charactor/MyTestPlayer.prefab"}|{"Name":"Player","ID":2100708268,"Path":"Assets/Prefabs/Charactor/Player.prefab"}|{"Name":"EmptyPlayer 1","ID":619005188,"Path":"Assets/Prefabs/CharactorV2/EmptyPlayer 1.prefab"}|{"Name":"EmptyPlayer","ID":320469304,"Path":"Assets/Prefabs/CharactorV2/EmptyPlayer.prefab"}|{"Name":"BurnBuff","ID":2235642898,"Path":"Assets/Prefabs/Example/BurnBuff.prefab"}|{"Name":"EagleExample","ID":3555599939,"Path":"Assets/Prefabs/Example/EagleExample.prefab"}|{"Name":"FireBallEagleExample","ID":1096054513,"Path":"Assets/Prefabs/Example/FireBallEagleExample.prefab"}|{"Name":"FireBallMomExample","ID":1681392008,"Path":"Assets/Prefabs/Example/FireBallMomExample.prefab"}|{"Name":"MomExample","ID":3273369817,"Path":"Assets/Prefabs/Example/MomExample.prefab"}|{"Name":"PlayerExample","ID":749872214,"Path":"Assets/Prefabs/Example/PlayerExample.prefab"}|{"Name":"SlowDownBuff","ID":1958464012,"Path":"Assets/Prefabs/Example/SlowDownBuff.prefab"}|{"Name":"PlayerController","ID":1476681251,"Path":"Assets/Prefabs/PlayerController.prefab"}</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+  <si>
+    <t>Global</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>EntryPoint</t>
+  </si>
+  <si>
+    <t>http://test</t>
+  </si>
+  <si>
+    <t>Port</t>
+  </si>
+  <si>
+    <t>8080</t>
+  </si>
+  <si>
+    <t>Gravity</t>
+  </si>
+  <si>
+    <t>9.8</t>
+  </si>
+  <si>
+    <t>AttackRange</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>Characters</t>
+  </si>
+  <si>
+    <t>Local</t>
+  </si>
+  <si>
+    <t>CharacterName</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Identity</t>
+  </si>
+  <si>
+    <t>MaxHealth</t>
+  </si>
+  <si>
+    <t>MoveSpeed</t>
+  </si>
+  <si>
+    <t>Mass</t>
+  </si>
+  <si>
+    <t>JumpSpeeds</t>
+  </si>
+  <si>
+    <t>BlackBoss</t>
+  </si>
+  <si>
+    <t>黑团团</t>
+  </si>
+  <si>
+    <t>Eagle</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>prefabInfo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -132,62 +123,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u val="single"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -203,7 +158,7 @@
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -225,9 +180,24 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -235,7 +205,7 @@
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -243,14 +213,14 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -258,21 +228,42 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -285,49 +276,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -339,121 +414,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,21 +467,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -523,6 +499,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -578,214 +569,428 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <horizontal style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstColumn" dxfId="3"/>
+      <tableStyleElement type="lastColumn" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+    </tableStyle>
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
+      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1047,7 +1252,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -1104,15 +1309,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -1126,19 +1331,6 @@
       <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2"/>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3"/>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1147,94 +1339,70 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="7"/>
+  <cols>
+    <col min="2" max="2" width="21.75" customWidth="1"/>
+    <col min="3" max="3" width="24.375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>16</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>19</v>
       </c>
       <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>21</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>22</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
       </c>
       <c r="F2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
         <v>24</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1244,14 +1412,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView showRuler="1" showOutlineSymbols="1" defaultGridColor="1" colorId="64" zoomScale="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1259,15 +1430,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Assets/Configurations/Designer.xlsx
+++ b/Assets/Configurations/Designer.xlsx
@@ -4,20 +4,256 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17340" windowHeight="11895" activeTab="3"/>
+    <workbookView windowWidth="21615" windowHeight="16500"/>
   </bookViews>
   <sheets>
-    <sheet name="Global" sheetId="1" r:id="rId1"/>
-    <sheet name="CharacterList" sheetId="2" r:id="rId2"/>
-    <sheet name="Character" sheetId="3" r:id="rId3"/>
-    <sheet name="NetworkPrefab" sheetId="4" r:id="rId4"/>
+    <sheet name="AttackRange" sheetId="1" r:id="rId1"/>
+    <sheet name="Buff" sheetId="2" r:id="rId2"/>
+    <sheet name="Attack" sheetId="3" r:id="rId3"/>
+    <sheet name="Skill" sheetId="4" r:id="rId4"/>
+    <sheet name="Character" sheetId="5" r:id="rId5"/>
+    <sheet name="CharacterList" sheetId="6" r:id="rId6"/>
+    <sheet name="NetworkPrefab" sheetId="7" r:id="rId7"/>
+    <sheet name="Global" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" calcCompleted="0" calcOnSave="0" fullPrecision="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="89">
+  <si>
+    <t>Local</t>
+  </si>
+  <si>
+    <t>AttackRangeType</t>
+  </si>
+  <si>
+    <t>NearDistance</t>
+  </si>
+  <si>
+    <t>FarDistance</t>
+  </si>
+  <si>
+    <t>SectorAngle</t>
+  </si>
+  <si>
+    <t>Width</t>
+  </si>
+  <si>
+    <t>OffsetAngle</t>
+  </si>
+  <si>
+    <t>BlackBossAttack</t>
+  </si>
+  <si>
+    <t>Sector</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>BlackBossAttackAttack</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>BlackBossAttackPrepare</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>SpeedMultiplier</t>
+  </si>
+  <si>
+    <t>SpeedAddition</t>
+  </si>
+  <si>
+    <t>DamageMultiplier</t>
+  </si>
+  <si>
+    <t>DamageAddition</t>
+  </si>
+  <si>
+    <t>BeHurtMultiplier</t>
+  </si>
+  <si>
+    <t>BeHurtAddition</t>
+  </si>
+  <si>
+    <t>BeStunning</t>
+  </si>
+  <si>
+    <t>Interval</t>
+  </si>
+  <si>
+    <t>BeDamageOverTime</t>
+  </si>
+  <si>
+    <t>KnockbackDistance</t>
+  </si>
+  <si>
+    <t>KnockbackDuration</t>
+  </si>
+  <si>
+    <t>KnockoffInitialVelocity</t>
+  </si>
+  <si>
+    <t>KnockoffDuration</t>
+  </si>
+  <si>
+    <t>Fire</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>0.3</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>0,0,0</t>
+  </si>
+  <si>
+    <t>ForMyself</t>
+  </si>
+  <si>
+    <t>TargetLayer</t>
+  </si>
+  <si>
+    <t>AttackRange</t>
+  </si>
+  <si>
+    <t>Damage</t>
+  </si>
+  <si>
+    <t>Buffs</t>
+  </si>
+  <si>
+    <t>ShootBullet</t>
+  </si>
+  <si>
+    <t>Mom
+Baby</t>
+  </si>
+  <si>
+    <t>0,0,5</t>
+  </si>
+  <si>
+    <t>BlackBossShoot</t>
+  </si>
+  <si>
+    <t>BlackBullet</t>
+  </si>
+  <si>
+    <t>AutoAttack</t>
+  </si>
+  <si>
+    <t>AutoPrepareRange</t>
+  </si>
+  <si>
+    <t>AutoAttackRange</t>
+  </si>
+  <si>
+    <t>AutoTargetLayer</t>
+  </si>
+  <si>
+    <t>CoolDown</t>
+  </si>
+  <si>
+    <t>Speed</t>
+  </si>
+  <si>
+    <t>RotationY</t>
+  </si>
+  <si>
+    <t>AttackEvents</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>{}</t>
+  </si>
+  <si>
+    <t>[0.2]Attack_BlackBossAttack</t>
+  </si>
+  <si>
+    <t>BlackBossDash</t>
+  </si>
+  <si>
+    <t>0.7</t>
+  </si>
+  <si>
+    <t>[0.2]Attack_BlackBossShoot</t>
+  </si>
+  <si>
+    <t>CharacterName</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Identity</t>
+  </si>
+  <si>
+    <t>MaxHealth</t>
+  </si>
+  <si>
+    <t>MoveSpeed</t>
+  </si>
+  <si>
+    <t>Mass</t>
+  </si>
+  <si>
+    <t>JumpSpeeds</t>
+  </si>
+  <si>
+    <t>Skills</t>
+  </si>
+  <si>
+    <t>BlackBoss</t>
+  </si>
+  <si>
+    <t>黑团团</t>
+  </si>
+  <si>
+    <t>Eagle</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>BlackBossAttack
+BlackBossShoot
+BlackBossDash
+BlackBossDash</t>
+  </si>
   <si>
     <t>Global</t>
   </si>
@@ -25,6 +261,34 @@
     <t>Value</t>
   </si>
   <si>
+    <t>Characters</t>
+  </si>
+  <si>
+    <t>prefabInfo</t>
+  </si>
+  <si>
+    <t>{"Name":"FireBuffExample","ID":2093473897,"Path":"Assets/Prefabs/Buff/FireBuffExample.prefab"}
+{"Name":"IceBuffExample","ID":2737803754,"Path":"Assets/Prefabs/Buff/IceBuffExample.prefab"}
+{"Name":"FireBall","ID":3298020442,"Path":"Assets/Prefabs/Bullet/FireBall.prefab"}
+{"Name":"BlackBoss","ID":3552132377,"Path":"Assets/Prefabs/Characters/BlackBoss.prefab"}
+{"Name":"Baby","ID":3019281079,"Path":"Assets/Prefabs/Charactor/Baby.prefab"}
+{"Name":"Character","ID":4133940207,"Path":"Assets/Prefabs/Charactor/Character.prefab"}
+{"Name":"CharacterExample","ID":504623618,"Path":"Assets/Prefabs/Charactor/CharacterExample.prefab"}
+{"Name":"Eagle","ID":3103489466,"Path":"Assets/Prefabs/Charactor/Eagle.prefab"}
+{"Name":"Mom","ID":328946675,"Path":"Assets/Prefabs/Charactor/Mom.prefab"}
+{"Name":"MyTestPlayer","ID":2239586818,"Path":"Assets/Prefabs/Charactor/MyTestPlayer.prefab"}
+{"Name":"Player","ID":2100708268,"Path":"Assets/Prefabs/Charactor/Player.prefab"}
+{"Name":"EmptyPlayer 1","ID":619005188,"Path":"Assets/Prefabs/CharactorV2/EmptyPlayer 1.prefab"}
+{"Name":"EmptyPlayer","ID":320469304,"Path":"Assets/Prefabs/CharactorV2/EmptyPlayer.prefab"}
+{"Name":"BurnBuff","ID":2235642898,"Path":"Assets/Prefabs/Example/BurnBuff.prefab"}
+{"Name":"EagleExample","ID":3555599939,"Path":"Assets/Prefabs/Example/EagleExample.prefab"}
+{"Name":"FireBallEagleExample","ID":1096054513,"Path":"Assets/Prefabs/Example/FireBallEagleExample.prefab"}
+{"Name":"FireBallMomExample","ID":1681392008,"Path":"Assets/Prefabs/Example/FireBallMomExample.prefab"}
+{"Name":"MomExample","ID":3273369817,"Path":"Assets/Prefabs/Example/MomExample.prefab"}
+{"Name":"PlayerExample","ID":749872214,"Path":"Assets/Prefabs/Example/PlayerExample.prefab"}
+{"Name":"SlowDownBuff","ID":1958464012,"Path":"Assets/Prefabs/Example/SlowDownBuff.prefab"}</t>
+  </si>
+  <si>
     <t>EntryPoint</t>
   </si>
   <si>
@@ -43,58 +307,10 @@
     <t>9.8</t>
   </si>
   <si>
-    <t>AttackRange</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>Characters</t>
-  </si>
-  <si>
-    <t>Local</t>
-  </si>
-  <si>
-    <t>CharacterName</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Identity</t>
-  </si>
-  <si>
-    <t>MaxHealth</t>
-  </si>
-  <si>
-    <t>MoveSpeed</t>
-  </si>
-  <si>
-    <t>Mass</t>
-  </si>
-  <si>
-    <t>JumpSpeeds</t>
-  </si>
-  <si>
-    <t>BlackBoss</t>
-  </si>
-  <si>
-    <t>黑团团</t>
-  </si>
-  <si>
-    <t>Eagle</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>prefabInfo</t>
+    <t>Drag</t>
+  </si>
+  <si>
+    <t>0.5</t>
   </si>
 </sst>
 </file>
@@ -107,7 +323,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -127,7 +343,7 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -135,14 +351,14 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -158,7 +374,7 @@
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -189,7 +405,7 @@
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -197,7 +413,7 @@
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -205,7 +421,7 @@
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -213,14 +429,14 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -228,42 +444,35 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -569,157 +778,163 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -773,7 +988,7 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="23">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -781,6 +996,71 @@
           <bgColor theme="4" tint="0.799981688894314"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <horizontal style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <fill>
@@ -965,7 +1245,7 @@
       </border>
     </dxf>
   </dxfs>
-  <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
+  <tableStyles count="3" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
     <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
@@ -975,17 +1255,26 @@
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" table="0" count="7" xr9:uid="{4F6D336E-ED5C-435A-85B2-B384620A459D}">
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstColumn" dxfId="3"/>
+      <tableStyleElement type="lastColumn" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+    </tableStyle>
     <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="16"/>
-      <tableStyleElement type="totalRow" dxfId="15"/>
-      <tableStyleElement type="firstRowStripe" dxfId="14"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
-      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+      <tableStyleElement type="headerRow" dxfId="22"/>
+      <tableStyleElement type="totalRow" dxfId="21"/>
+      <tableStyleElement type="firstRowStripe" dxfId="20"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="19"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="18"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="17"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="16"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="15"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="14"/>
+      <tableStyleElement type="pageFieldValues" dxfId="13"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1254,51 +1543,103 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="6"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1311,25 +1652,106 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1341,68 +1763,114 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
-    <col min="2" max="2" width="21.75" customWidth="1"/>
-    <col min="3" max="3" width="24.375" customWidth="1"/>
+    <col min="2" max="2" width="17.75" customWidth="1"/>
+    <col min="3" max="3" width="18.5" customWidth="1"/>
+    <col min="4" max="4" width="22.625" customWidth="1"/>
+    <col min="11" max="11" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="F1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="G1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="H1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="I1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" ht="27" spans="1:9">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" t="s">
-        <v>20</v>
+        <v>30</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="G2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" t="s">
         <v>9</v>
       </c>
-      <c r="H2" t="s">
-        <v>24</v>
+    </row>
+    <row r="3" ht="27" spans="1:11">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1414,25 +1882,339 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <cols>
+    <col min="5" max="5" width="22.875" customWidth="1"/>
+    <col min="10" max="10" width="39.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" ht="27" spans="1:10">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <cols>
+    <col min="9" max="9" width="31.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" ht="54" spans="1:9">
+      <c r="A2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
+  <cols>
+    <col min="2" max="2" width="21.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>78</v>
+      </c>
+      <c r="B2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="27.375" customWidth="1"/>
+    <col min="2" max="2" width="110.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" ht="409" customHeight="1" spans="1:2">
+      <c r="A2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Configurations/Designer.xlsx
+++ b/Assets/Configurations/Designer.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21615" windowHeight="16500"/>
+    <workbookView windowWidth="21615" windowHeight="16500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="AttackRange" sheetId="1" r:id="rId1"/>
@@ -192,7 +192,7 @@
     <t>{}</t>
   </si>
   <si>
-    <t>[0.2]Attack_BlackBossAttack</t>
+    <t>[0.2]BlackBossAttack</t>
   </si>
   <si>
     <t>BlackBossDash</t>
@@ -201,7 +201,7 @@
     <t>0.7</t>
   </si>
   <si>
-    <t>[0.2]Attack_BlackBossShoot</t>
+    <t>[0.2]BlackBossShoot</t>
   </si>
   <si>
     <t>CharacterName</t>
@@ -926,12 +926,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -988,7 +985,7 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="17">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -996,71 +993,6 @@
           <bgColor theme="4" tint="0.799981688894314"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="double">
-          <color theme="4"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <left style="thin">
-          <color theme="4"/>
-        </left>
-        <right style="thin">
-          <color theme="4"/>
-        </right>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-        <horizontal style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </horizontal>
-      </border>
     </dxf>
     <dxf>
       <fill>
@@ -1245,7 +1177,7 @@
       </border>
     </dxf>
   </dxfs>
-  <tableStyles count="3" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
+  <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
     <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
@@ -1255,26 +1187,17 @@
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" table="0" count="7" xr9:uid="{4F6D336E-ED5C-435A-85B2-B384620A459D}">
-      <tableStyleElement type="wholeTable" dxfId="6"/>
-      <tableStyleElement type="headerRow" dxfId="5"/>
-      <tableStyleElement type="totalRow" dxfId="4"/>
-      <tableStyleElement type="firstColumn" dxfId="3"/>
-      <tableStyleElement type="lastColumn" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
-    </tableStyle>
     <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="22"/>
-      <tableStyleElement type="totalRow" dxfId="21"/>
-      <tableStyleElement type="firstRowStripe" dxfId="20"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="19"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="18"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="17"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="16"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="15"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="14"/>
-      <tableStyleElement type="pageFieldValues" dxfId="13"/>
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
+      <tableStyleElement type="pageFieldValues" dxfId="7"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1545,7 +1468,7 @@
   <sheetPr/>
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
@@ -1819,7 +1742,7 @@
       <c r="B2" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D2" t="s">
@@ -1848,7 +1771,7 @@
       <c r="B3" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D3" t="s">
@@ -1884,8 +1807,8 @@
   <sheetPr/>
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
@@ -1939,7 +1862,7 @@
       <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>40</v>
       </c>
       <c r="F2" t="s">

--- a/Assets/Configurations/Designer.xlsx
+++ b/Assets/Configurations/Designer.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <workbookPr autoCompressPictures="1"/>
   <bookViews>
     <workbookView windowWidth="21615" windowHeight="16500" activeTab="3"/>
   </bookViews>
@@ -16,258 +16,258 @@
     <sheet name="NetworkPrefab" sheetId="7" r:id="rId7"/>
     <sheet name="Global" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="144525" calcCompleted="0" calcOnSave="0" fullPrecision="0" concurrentCalc="0"/>
+  <calcPr calcId="144525" calcMode="auto" fullCalcOnLoad="0" refMode="A1" iterate="0" fullPrecision="0" calcCompleted="0" calcOnSave="0" concurrentCalc="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="89">
-  <si>
-    <t>Local</t>
-  </si>
-  <si>
-    <t>AttackRangeType</t>
-  </si>
-  <si>
-    <t>NearDistance</t>
-  </si>
-  <si>
-    <t>FarDistance</t>
-  </si>
-  <si>
-    <t>SectorAngle</t>
-  </si>
-  <si>
-    <t>Width</t>
-  </si>
-  <si>
-    <t>OffsetAngle</t>
-  </si>
-  <si>
-    <t>BlackBossAttack</t>
-  </si>
-  <si>
-    <t>Sector</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>BlackBossAttackAttack</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>180</t>
-  </si>
-  <si>
-    <t>BlackBossAttackPrepare</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>Duration</t>
-  </si>
-  <si>
-    <t>SpeedMultiplier</t>
-  </si>
-  <si>
-    <t>SpeedAddition</t>
-  </si>
-  <si>
-    <t>DamageMultiplier</t>
-  </si>
-  <si>
-    <t>DamageAddition</t>
-  </si>
-  <si>
-    <t>BeHurtMultiplier</t>
-  </si>
-  <si>
-    <t>BeHurtAddition</t>
-  </si>
-  <si>
-    <t>BeStunning</t>
-  </si>
-  <si>
-    <t>Interval</t>
-  </si>
-  <si>
-    <t>BeDamageOverTime</t>
-  </si>
-  <si>
-    <t>KnockbackDistance</t>
-  </si>
-  <si>
-    <t>KnockbackDuration</t>
-  </si>
-  <si>
-    <t>KnockoffInitialVelocity</t>
-  </si>
-  <si>
-    <t>KnockoffDuration</t>
-  </si>
-  <si>
-    <t>Fire</t>
-  </si>
-  <si>
-    <t>False</t>
-  </si>
-  <si>
-    <t>0.3</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>0,0,0</t>
-  </si>
-  <si>
-    <t>ForMyself</t>
-  </si>
-  <si>
-    <t>TargetLayer</t>
-  </si>
-  <si>
-    <t>AttackRange</t>
-  </si>
-  <si>
-    <t>Damage</t>
-  </si>
-  <si>
-    <t>Buffs</t>
-  </si>
-  <si>
-    <t>ShootBullet</t>
-  </si>
-  <si>
-    <t>Mom
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="89">
+  <si>
+    <t xml:space="preserve">Local</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AttackRangeType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NearDistance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FarDistance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SectorAngle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Width</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OffsetAngle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BlackBossAttack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BlackBossAttackAttack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BlackBossAttackPrepare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpeedMultiplier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpeedAddition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DamageMultiplier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DamageAddition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BeHurtMultiplier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BeHurtAddition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BeStunning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interval</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BeDamageOverTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KnockbackDistance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KnockbackDuration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KnockoffInitialVelocity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KnockoffDuration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">False</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,0,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ForMyself</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TargetLayer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AttackRange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Damage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buffs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ShootBullet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mom
 Baby</t>
   </si>
   <si>
-    <t>0,0,5</t>
-  </si>
-  <si>
-    <t>BlackBossShoot</t>
-  </si>
-  <si>
-    <t>BlackBullet</t>
-  </si>
-  <si>
-    <t>AutoAttack</t>
-  </si>
-  <si>
-    <t>AutoPrepareRange</t>
-  </si>
-  <si>
-    <t>AutoAttackRange</t>
-  </si>
-  <si>
-    <t>AutoTargetLayer</t>
-  </si>
-  <si>
-    <t>CoolDown</t>
-  </si>
-  <si>
-    <t>Speed</t>
-  </si>
-  <si>
-    <t>RotationY</t>
-  </si>
-  <si>
-    <t>AttackEvents</t>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>0.4</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>{}</t>
-  </si>
-  <si>
-    <t>[0.2]BlackBossAttack</t>
-  </si>
-  <si>
-    <t>BlackBossDash</t>
-  </si>
-  <si>
-    <t>0.7</t>
-  </si>
-  <si>
-    <t>[0.2]BlackBossShoot</t>
-  </si>
-  <si>
-    <t>CharacterName</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Identity</t>
-  </si>
-  <si>
-    <t>MaxHealth</t>
-  </si>
-  <si>
-    <t>MoveSpeed</t>
-  </si>
-  <si>
-    <t>Mass</t>
-  </si>
-  <si>
-    <t>JumpSpeeds</t>
-  </si>
-  <si>
-    <t>Skills</t>
-  </si>
-  <si>
-    <t>BlackBoss</t>
-  </si>
-  <si>
-    <t>黑团团</t>
-  </si>
-  <si>
-    <t>Eagle</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>BlackBossAttack
+    <t xml:space="preserve">0,0,5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BlackBossShoot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BlackBullet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AutoAttack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AutoPrepareRange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AutoAttackRange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AutoTargetLayer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CoolDown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Speed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RotationY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AttackEvents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.2]BlackBossAttack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BlackBossDash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.2]BlackBossShoot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CharacterName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MaxHealth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MoveSpeed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JumpSpeeds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skills</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BlackBoss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">黑团团</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eagle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BlackBossAttack
 BlackBossShoot
 BlackBossDash
 BlackBossDash</t>
   </si>
   <si>
-    <t>Global</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Characters</t>
-  </si>
-  <si>
-    <t>prefabInfo</t>
-  </si>
-  <si>
-    <t>{"Name":"FireBuffExample","ID":2093473897,"Path":"Assets/Prefabs/Buff/FireBuffExample.prefab"}
+    <t xml:space="preserve">Global</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Characters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prefabInfo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{"Name":"FireBuffExample","ID":2093473897,"Path":"Assets/Prefabs/Buff/FireBuffExample.prefab"}
 {"Name":"IceBuffExample","ID":2737803754,"Path":"Assets/Prefabs/Buff/IceBuffExample.prefab"}
 {"Name":"FireBall","ID":3298020442,"Path":"Assets/Prefabs/Bullet/FireBall.prefab"}
 {"Name":"BlackBoss","ID":3552132377,"Path":"Assets/Prefabs/Characters/BlackBoss.prefab"}
@@ -289,34 +289,34 @@
 {"Name":"SlowDownBuff","ID":1958464012,"Path":"Assets/Prefabs/Example/SlowDownBuff.prefab"}</t>
   </si>
   <si>
-    <t>EntryPoint</t>
-  </si>
-  <si>
-    <t>http://test</t>
-  </si>
-  <si>
-    <t>Port</t>
-  </si>
-  <si>
-    <t>8080</t>
-  </si>
-  <si>
-    <t>Gravity</t>
-  </si>
-  <si>
-    <t>9.8</t>
-  </si>
-  <si>
-    <t>Drag</t>
-  </si>
-  <si>
-    <t>0.5</t>
+    <t xml:space="preserve">EntryPoint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Port</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8080</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gravity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
@@ -339,7 +339,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <u val="single"/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
@@ -347,7 +347,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <u val="single"/>
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
@@ -778,156 +778,156 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" xfId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" xfId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1004,19 +1004,19 @@
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="1"/>
       </font>
       <border>
@@ -1027,7 +1027,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="0"/>
       </font>
       <fill>
@@ -1074,7 +1074,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1105,13 +1105,13 @@
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="1"/>
       </font>
       <border>
@@ -1141,7 +1141,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="1"/>
       </font>
       <fill>
@@ -1161,7 +1161,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="1"/>
       </font>
       <fill>
@@ -1178,16 +1178,16 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" table="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
       <tableStyleElement type="firstColumn" dxfId="3"/>
       <tableStyleElement type="lastColumn" dxfId="2"/>
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+      <tableStyleElement type="firstColumnStripe"/>
     </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+    <tableStyle name="PivotStylePreset2_Accent1" pivot="0" table="0" count="10">
       <tableStyleElement type="headerRow" dxfId="16"/>
       <tableStyleElement type="totalRow" dxfId="15"/>
       <tableStyleElement type="firstRowStripe" dxfId="14"/>
@@ -1201,8 +1201,8 @@
     </tableStyle>
   </tableStyles>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1464,7 +1464,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <dimension ref="A1:G4"/>
   <sheetViews>
@@ -1573,7 +1573,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <dimension ref="A1:O2"/>
   <sheetViews>
@@ -1684,7 +1684,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <dimension ref="A1:K3"/>
   <sheetViews>
@@ -1735,7 +1735,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" ht="27" spans="1:9">
+    <row r="2" spans="1:9" ht="27">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1763,8 +1763,10 @@
       <c r="I2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" ht="27" spans="1:11">
+      <c r="J2"/>
+      <c r="K2"/>
+    </row>
+    <row r="3" spans="1:11" ht="27">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -1792,6 +1794,7 @@
       <c r="I3" t="s">
         <v>9</v>
       </c>
+      <c r="J3"/>
       <c r="K3" t="s">
         <v>43</v>
       </c>
@@ -1803,7 +1806,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <dimension ref="A1:J4"/>
   <sheetViews>
@@ -1849,7 +1852,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" ht="27" spans="1:10">
+    <row r="2" spans="1:10" ht="27">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1888,6 +1891,9 @@
       <c r="B3" t="s">
         <v>30</v>
       </c>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
       <c r="F3" t="s">
         <v>58</v>
       </c>
@@ -1900,6 +1906,7 @@
       <c r="I3" t="s">
         <v>55</v>
       </c>
+      <c r="J3"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
@@ -1908,6 +1915,9 @@
       <c r="B4" t="s">
         <v>30</v>
       </c>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
       <c r="F4" t="s">
         <v>11</v>
       </c>
@@ -1931,7 +1941,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -1973,7 +1983,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" ht="54" spans="1:9">
+    <row r="2" spans="1:9" ht="54">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -2009,7 +2019,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -2045,7 +2055,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -2067,7 +2077,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" ht="409" customHeight="1" spans="1:2">
+    <row r="2" spans="1:2" ht="409" customHeight="1">
       <c r="A2" t="s">
         <v>79</v>
       </c>
@@ -2082,7 +2092,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <dimension ref="A1:B6"/>
   <sheetViews>

--- a/Assets/Configurations/Designer.xlsx
+++ b/Assets/Configurations/Designer.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr autoCompressPictures="1"/>
   <bookViews>
-    <workbookView windowWidth="21615" windowHeight="16500" activeTab="3"/>
+    <workbookView windowWidth="30000" windowHeight="15795" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="AttackRange" sheetId="1" r:id="rId1"/>
@@ -15,13 +15,14 @@
     <sheet name="CharacterList" sheetId="6" r:id="rId6"/>
     <sheet name="NetworkPrefab" sheetId="7" r:id="rId7"/>
     <sheet name="Global" sheetId="8" r:id="rId8"/>
+    <sheet name="Bullet" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525" calcMode="auto" fullCalcOnLoad="0" refMode="A1" iterate="0" fullPrecision="0" calcCompleted="0" calcOnSave="0" concurrentCalc="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="98">
   <si>
     <t xml:space="preserve">Local</t>
   </si>
@@ -171,15 +172,18 @@
     <t xml:space="preserve">CoolDown</t>
   </si>
   <si>
-    <t xml:space="preserve">Speed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RotationY</t>
+    <t xml:space="preserve">DashSpeed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DashRotationY</t>
   </si>
   <si>
     <t xml:space="preserve">AttackEvents</t>
   </si>
   <si>
+    <t xml:space="preserve">ForceMove</t>
+  </si>
+  <si>
     <t xml:space="preserve">True</t>
   </si>
   <si>
@@ -249,10 +253,13 @@
     <t xml:space="preserve">8</t>
   </si>
   <si>
-    <t xml:space="preserve">BlackBossAttack
-BlackBossShoot
+    <t xml:space="preserve">BlackBossShoot
 BlackBossDash
-BlackBossDash</t>
+BlackBossDash
+BlackBossAttack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dummy</t>
   </si>
   <si>
     <t xml:space="preserve">Global</t>
@@ -262,6 +269,10 @@
   </si>
   <si>
     <t xml:space="preserve">Characters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BlackBoss
+Dummy</t>
   </si>
   <si>
     <t xml:space="preserve">prefabInfo</t>
@@ -311,6 +322,24 @@
   </si>
   <si>
     <t xml:space="preserve">0.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">During</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Speed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,0,1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1</t>
   </si>
 </sst>
 </file>
@@ -985,7 +1014,7 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="23">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -993,6 +1022,71 @@
           <bgColor theme="4" tint="0.799981688894314"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <horizontal style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <fill>
@@ -1177,7 +1271,16 @@
       </border>
     </dxf>
   </dxfs>
-  <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
+  <tableStyles count="3" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" table="0" count="7">
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstColumn" dxfId="3"/>
+      <tableStyleElement type="lastColumn" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe"/>
+    </tableStyle>
     <tableStyle name="TableStylePreset3_Accent1" pivot="0" table="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
@@ -1188,16 +1291,16 @@
       <tableStyleElement type="firstColumnStripe"/>
     </tableStyle>
     <tableStyle name="PivotStylePreset2_Accent1" pivot="0" table="0" count="10">
-      <tableStyleElement type="headerRow" dxfId="16"/>
-      <tableStyleElement type="totalRow" dxfId="15"/>
-      <tableStyleElement type="firstRowStripe" dxfId="14"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
-      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+      <tableStyleElement type="headerRow" dxfId="22"/>
+      <tableStyleElement type="totalRow" dxfId="21"/>
+      <tableStyleElement type="firstRowStripe" dxfId="20"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="19"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="18"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="17"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="16"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="15"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="14"/>
+      <tableStyleElement type="pageFieldValues" dxfId="13"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1473,6 +1576,10 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="25.75" customWidth="1"/>
+    <col min="2" max="2" width="27" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
@@ -1688,8 +1795,8 @@
   <sheetPr/>
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -1697,6 +1804,8 @@
     <col min="2" max="2" width="17.75" customWidth="1"/>
     <col min="3" max="3" width="18.5" customWidth="1"/>
     <col min="4" max="4" width="22.625" customWidth="1"/>
+    <col min="6" max="6" width="26.75" customWidth="1"/>
+    <col min="7" max="7" width="36.25" customWidth="1"/>
     <col min="11" max="11" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1808,19 +1917,25 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
+    <col min="1" max="1" width="21.875" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="31.375" customWidth="1"/>
+    <col min="4" max="4" width="22.75" customWidth="1"/>
     <col min="5" max="5" width="22.875" customWidth="1"/>
+    <col min="8" max="8" width="17.75" customWidth="1"/>
+    <col min="9" max="9" width="26.75" customWidth="1"/>
     <col min="10" max="10" width="39.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1851,13 +1966,16 @@
       <c r="J1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="27">
+      <c r="K1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="27">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -1869,24 +1987,27 @@
         <v>40</v>
       </c>
       <c r="F2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K2" t="s">
         <v>53</v>
       </c>
-      <c r="G2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
         <v>30</v>
@@ -1895,20 +2016,23 @@
       <c r="D3"/>
       <c r="E3"/>
       <c r="F3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="H3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J3"/>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="K3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -1919,19 +2043,22 @@
       <c r="D4"/>
       <c r="E4"/>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="H4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J4" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="K4" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1943,15 +2070,23 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
-    <col min="9" max="9" width="31.5" customWidth="1"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="17.25" customWidth="1"/>
+    <col min="3" max="3" width="14.75" customWidth="1"/>
+    <col min="4" max="4" width="15.875" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="10.5" customWidth="1"/>
+    <col min="7" max="7" width="5.625" customWidth="1"/>
+    <col min="8" max="8" width="12.625" customWidth="1"/>
+    <col min="9" max="9" width="16.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1959,58 +2094,85 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="54">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="40" customHeight="1">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" t="s">
         <v>72</v>
       </c>
-      <c r="G2" t="s">
+      <c r="F3" t="s">
         <v>73</v>
       </c>
-      <c r="H2" t="s">
+      <c r="G3" t="s">
         <v>74</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="H3" t="s">
         <v>75</v>
       </c>
+      <c r="I3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2024,28 +2186,29 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="2" max="2" width="21.5" customWidth="1"/>
+    <col min="1" max="1" width="12.25" customWidth="1"/>
+    <col min="2" max="2" width="20.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="27">
       <c r="A2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B2" t="s">
-        <v>68</v>
+        <v>80</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2071,18 +2234,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="409" customHeight="1">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2104,34 +2267,34 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2139,15 +2302,108 @@
         <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I2" t="s">
+        <v>97</v>
+      </c>
+      <c r="J2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Configurations/Designer.xlsx
+++ b/Assets/Configurations/Designer.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="103">
   <si>
     <t xml:space="preserve">Local</t>
   </si>
@@ -340,6 +340,23 @@
   </si>
   <si>
     <t xml:space="preserve">0.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mom
+Baby
+Dummy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OffsetPosition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,1.3,1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,0,0.2</t>
   </si>
 </sst>
 </file>
@@ -1742,7 +1759,7 @@
         <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -1763,13 +1780,13 @@
         <v>9</v>
       </c>
       <c r="I2" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="J2" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="K2" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="L2" t="s">
         <v>33</v>
@@ -1852,7 +1869,7 @@
         <v>30</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -1883,19 +1900,19 @@
         <v>30</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="H3" t="s">
         <v>33</v>
@@ -1984,7 +2001,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="F2" t="s">
         <v>54</v>
@@ -2046,7 +2063,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="H4" t="s">
         <v>56</v>
@@ -2367,6 +2384,9 @@
       <c r="L1" t="s">
         <v>38</v>
       </c>
+      <c r="M1" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
@@ -2385,16 +2405,16 @@
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="G2" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="H2" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="I2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J2" t="s">
         <v>33</v>
@@ -2404,6 +2424,9 @@
       </c>
       <c r="L2" t="s">
         <v>29</v>
+      </c>
+      <c r="M2" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Configurations/Designer.xlsx
+++ b/Assets/Configurations/Designer.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="106">
   <si>
     <t xml:space="preserve">Local</t>
   </si>
@@ -357,6 +357,15 @@
   </si>
   <si>
     <t xml:space="preserve">0,0,0.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.1]BlackBossAttack</t>
   </si>
 </sst>
 </file>
@@ -1632,10 +1641,10 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>104</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
@@ -1655,10 +1664,10 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
@@ -1678,10 +1687,10 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
@@ -1878,10 +1887,10 @@
         <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="G2" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="H2" t="s">
         <v>33</v>
@@ -2004,10 +2013,10 @@
         <v>98</v>
       </c>
       <c r="F2" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="G2" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="H2" t="s">
         <v>56</v>
@@ -2016,7 +2025,7 @@
         <v>56</v>
       </c>
       <c r="J2" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="K2" t="s">
         <v>53</v>

--- a/Assets/Configurations/Designer.xlsx
+++ b/Assets/Configurations/Designer.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr autoCompressPictures="1"/>
   <bookViews>
-    <workbookView windowWidth="30000" windowHeight="15795" activeTab="2"/>
+    <workbookView windowWidth="30000" windowHeight="15795" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="AttackRange" sheetId="1" r:id="rId1"/>
@@ -17,12 +17,25 @@
     <sheet name="Global" sheetId="8" r:id="rId8"/>
     <sheet name="Bullet" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="144525" calcMode="auto" fullCalcOnLoad="0" refMode="A1" iterate="0" fullPrecision="0" calcCompleted="0" calcOnSave="0" concurrentCalc="0" forceFullCalc="0"/>
+  <calcPr calcId="191029" calcMode="auto" fullCalcOnLoad="0" refMode="A1" iterate="0" fullPrecision="0" calcCompleted="0" calcOnSave="0" concurrentCalc="0" forceFullCalc="0"/>
+  <extLst>
+    <ext uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures">
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="99">
   <si>
     <t xml:space="preserve">Local</t>
   </si>
@@ -54,21 +67,21 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">120</t>
+  </si>
+  <si>
     <t xml:space="preserve">BlackBossAttackAttack</t>
   </si>
   <si>
+    <t xml:space="preserve">BlackBossAttackPrepare</t>
+  </si>
+  <si>
     <t xml:space="preserve">3</t>
   </si>
   <si>
-    <t xml:space="preserve">180</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BlackBossAttackPrepare</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
-  </si>
-  <si>
     <t xml:space="preserve">Duration</t>
   </si>
   <si>
@@ -114,95 +127,99 @@
     <t xml:space="preserve">Fire</t>
   </si>
   <si>
+    <t xml:space="preserve">0.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,0,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ForMyself</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TargetLayer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AttackRange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Damage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buffs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ShootBullet</t>
+  </si>
+  <si>
     <t xml:space="preserve">False</t>
   </si>
   <si>
+    <t xml:space="preserve">Mom
+Baby
+Dummy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,0,1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BlackBossShoot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BlackBullet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AutoAttack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AutoPrepareRange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AutoAttackRange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AutoTargetLayer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CoolDown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DashSpeed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DashRotationY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AttackEvents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ForceMove</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0.1]BlackBossAttack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BlackBossDash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,0,0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ForMyself</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TargetLayer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AttackRange</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Damage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buffs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ShootBullet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mom
-Baby</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,0,5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BlackBossShoot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BlackBullet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AutoAttack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AutoPrepareRange</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AutoAttackRange</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AutoTargetLayer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CoolDown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DashSpeed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DashRotationY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AttackEvents</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ForceMove</t>
-  </si>
-  <si>
-    <t xml:space="preserve">True</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.2]BlackBossAttack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BlackBossDash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7</t>
   </si>
   <si>
     <t xml:space="preserve">[0.2]BlackBossShoot</t>
@@ -321,9 +338,6 @@
     <t xml:space="preserve">Drag</t>
   </si>
   <si>
-    <t xml:space="preserve">0.5</t>
-  </si>
-  <si>
     <t xml:space="preserve">During</t>
   </si>
   <si>
@@ -333,39 +347,19 @@
     <t xml:space="preserve">Size</t>
   </si>
   <si>
-    <t xml:space="preserve">20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,0,1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mom
-Baby
-Dummy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2</t>
-  </si>
-  <si>
     <t xml:space="preserve">OffsetPosition</t>
   </si>
   <si>
+    <t xml:space="preserve">0,0,0.2</t>
+  </si>
+  <si>
     <t xml:space="preserve">0,1.3,1</t>
   </si>
   <si>
-    <t xml:space="preserve">0,0,0.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.1]BlackBossAttack</t>
+    <t xml:space="preserve">{"Name":"Fire","ID":1556163566,"Path":"Assets/Prefabs/Buffs/Fire.prefab"}
+{"Name":"BlackBullet","ID":2553873253,"Path":"Assets/Prefabs/Bullets/BlackBullet.prefab"}
+{"Name":"BlackBoss","ID":3552132377,"Path":"Assets/Prefabs/Characters/BlackBoss.prefab"}
+{"Name":"Dummy","ID":3751740005,"Path":"Assets/Prefabs/Characters/Dummy.prefab"}</t>
   </si>
 </sst>
 </file>
@@ -1605,6 +1599,8 @@
   <cols>
     <col min="1" max="1" width="25.75" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
+    <col min="3" max="3" width="15.5" customWidth="1"/>
+    <col min="4" max="4" width="22.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1641,10 +1637,10 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>103</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>104</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
@@ -1655,7 +1651,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -1664,10 +1660,10 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>103</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>104</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
@@ -1687,10 +1683,10 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
         <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>104</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
@@ -1710,11 +1706,25 @@
   <sheetPr/>
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <cols>
+    <col min="3" max="3" width="20.875" customWidth="1"/>
+    <col min="4" max="4" width="25.125" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="6" max="6" width="21.5" customWidth="1"/>
+    <col min="7" max="7" width="22.5" customWidth="1"/>
+    <col min="8" max="8" width="18" customWidth="1"/>
+    <col min="9" max="9" width="13.125" customWidth="1"/>
+    <col min="10" max="10" width="10.125" customWidth="1"/>
+    <col min="11" max="11" width="18.75" customWidth="1"/>
+    <col min="12" max="13" width="19.75" customWidth="1"/>
+    <col min="14" max="14" width="25.25" customWidth="1"/>
+    <col min="15" max="15" width="18" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" t="s">
@@ -1768,7 +1778,7 @@
         <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -1789,13 +1799,13 @@
         <v>9</v>
       </c>
       <c r="I2" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="J2" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="K2" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="L2" t="s">
         <v>33</v>
@@ -1821,17 +1831,19 @@
   <sheetPr/>
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="17.75" customWidth="1"/>
     <col min="3" max="3" width="18.5" customWidth="1"/>
     <col min="4" max="4" width="22.625" customWidth="1"/>
     <col min="6" max="6" width="26.75" customWidth="1"/>
     <col min="7" max="7" width="36.25" customWidth="1"/>
+    <col min="8" max="8" width="24.25" customWidth="1"/>
     <col min="11" max="11" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1870,27 +1882,27 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="27">
+    <row r="2" spans="1:9" ht="40.5">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
       <c r="E2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" t="s">
         <v>32</v>
-      </c>
-      <c r="F2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G2" t="s">
-        <v>55</v>
       </c>
       <c r="H2" t="s">
         <v>33</v>
@@ -1901,15 +1913,15 @@
       <c r="J2"/>
       <c r="K2"/>
     </row>
-    <row r="3" spans="1:11" ht="27">
+    <row r="3" spans="1:11" ht="40.5">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -1931,7 +1943,7 @@
       </c>
       <c r="J3"/>
       <c r="K3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1946,7 +1958,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
@@ -1959,6 +1971,7 @@
     <col min="8" max="8" width="17.75" customWidth="1"/>
     <col min="9" max="9" width="26.75" customWidth="1"/>
     <col min="10" max="10" width="39.375" customWidth="1"/>
+    <col min="11" max="11" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1966,57 +1979,57 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F1" t="s">
         <v>15</v>
       </c>
       <c r="G1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="27">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="40.5">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="F2" t="s">
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
         <v>56</v>
@@ -2025,10 +2038,10 @@
         <v>56</v>
       </c>
       <c r="J2" t="s">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="K2" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -2036,7 +2049,7 @@
         <v>58</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C3"/>
       <c r="D3"/>
@@ -2045,7 +2058,7 @@
         <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
         <v>56</v>
@@ -2055,24 +2068,24 @@
       </c>
       <c r="J3"/>
       <c r="K3" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C4"/>
       <c r="D4"/>
       <c r="E4"/>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="G4" t="s">
-        <v>99</v>
+        <v>30</v>
       </c>
       <c r="H4" t="s">
         <v>56</v>
@@ -2081,10 +2094,10 @@
         <v>56</v>
       </c>
       <c r="J4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K4" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -2120,83 +2133,83 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="40" customHeight="1">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I3"/>
     </row>
@@ -2223,18 +2236,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="27">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2260,18 +2273,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="409" customHeight="1">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2290,37 +2303,40 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="1"/>
+  <cols>
+    <col min="2" max="2" width="23.125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2328,15 +2344,15 @@
         <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B6" t="s">
-        <v>91</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -2348,15 +2364,25 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="18.875" customWidth="1"/>
+    <col min="5" max="5" width="21.875" customWidth="1"/>
+    <col min="6" max="6" width="16.5" customWidth="1"/>
+    <col min="8" max="8" width="19.875" customWidth="1"/>
+    <col min="9" max="9" width="19.25" customWidth="1"/>
+    <col min="10" max="10" width="24" customWidth="1"/>
+    <col min="11" max="11" width="19.875" customWidth="1"/>
+    <col min="13" max="13" width="22.625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2394,36 +2420,36 @@
         <v>38</v>
       </c>
       <c r="M1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
         <v>32</v>
-      </c>
-      <c r="D2" t="s">
-        <v>55</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="G2" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="I2" t="s">
-        <v>99</v>
+        <v>30</v>
       </c>
       <c r="J2" t="s">
         <v>33</v>
@@ -2435,7 +2461,7 @@
         <v>29</v>
       </c>
       <c r="M2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Configurations/Designer.xlsx
+++ b/Assets/Configurations/Designer.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="99">
   <si>
     <t xml:space="preserve">Local</t>
   </si>
@@ -1778,7 +1778,7 @@
         <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -1802,10 +1802,10 @@
         <v>31</v>
       </c>
       <c r="J2" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="K2" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="L2" t="s">
         <v>33</v>

--- a/Assets/Configurations/Designer.xlsx
+++ b/Assets/Configurations/Designer.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr autoCompressPictures="1"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30000" windowHeight="15795" activeTab="8"/>
+    <workbookView windowWidth="28000" windowHeight="12220" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="AttackRange" sheetId="1" r:id="rId1"/>
@@ -17,396 +17,370 @@
     <sheet name="Global" sheetId="8" r:id="rId8"/>
     <sheet name="Bullet" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029" calcMode="auto" fullCalcOnLoad="0" refMode="A1" iterate="0" fullPrecision="0" calcCompleted="0" calcOnSave="0" concurrentCalc="0" forceFullCalc="0"/>
-  <extLst>
-    <ext uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures">
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525" calcCompleted="0" calcOnSave="0" fullPrecision="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="99">
-  <si>
-    <t xml:space="preserve">Local</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AttackRangeType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NearDistance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FarDistance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SectorAngle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Width</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OffsetAngle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BlackBossAttack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sector</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BlackBossAttackAttack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BlackBossAttackPrepare</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Duration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpeedMultiplier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpeedAddition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DamageMultiplier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DamageAddition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BeHurtMultiplier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BeHurtAddition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BeStunning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interval</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BeDamageOverTime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KnockbackDistance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KnockbackDuration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KnockoffInitialVelocity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KnockoffDuration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">True</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,0,0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ForMyself</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TargetLayer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AttackRange</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Damage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buffs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ShootBullet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">False</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mom
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="101">
+  <si>
+    <t>Local</t>
+  </si>
+  <si>
+    <t>AttackRangeType</t>
+  </si>
+  <si>
+    <t>NearDistance</t>
+  </si>
+  <si>
+    <t>FarDistance</t>
+  </si>
+  <si>
+    <t>SectorAngle</t>
+  </si>
+  <si>
+    <t>Width</t>
+  </si>
+  <si>
+    <t>OffsetAngle</t>
+  </si>
+  <si>
+    <t>BlackBossAttack</t>
+  </si>
+  <si>
+    <t>Sector</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>BlackBossAttackAttack</t>
+  </si>
+  <si>
+    <t>BlackBossAttackPrepare</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>SpeedMultiplier</t>
+  </si>
+  <si>
+    <t>SpeedAddition</t>
+  </si>
+  <si>
+    <t>DamageMultiplier</t>
+  </si>
+  <si>
+    <t>DamageAddition</t>
+  </si>
+  <si>
+    <t>BeHurtMultiplier</t>
+  </si>
+  <si>
+    <t>BeHurtAddition</t>
+  </si>
+  <si>
+    <t>BeStunning</t>
+  </si>
+  <si>
+    <t>Interval</t>
+  </si>
+  <si>
+    <t>BeDamageOverTime</t>
+  </si>
+  <si>
+    <t>KnockbackDistance</t>
+  </si>
+  <si>
+    <t>KnockbackDuration</t>
+  </si>
+  <si>
+    <t>KnockoffInitialVelocity</t>
+  </si>
+  <si>
+    <t>KnockoffDuration</t>
+  </si>
+  <si>
+    <t>Fire</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>0,0,0</t>
+  </si>
+  <si>
+    <t>ForMyself</t>
+  </si>
+  <si>
+    <t>TargetLayer</t>
+  </si>
+  <si>
+    <t>AttackRange</t>
+  </si>
+  <si>
+    <t>Damage</t>
+  </si>
+  <si>
+    <t>Buffs</t>
+  </si>
+  <si>
+    <t>ShootBullet</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>Mom
 Baby
 Dummy</t>
   </si>
   <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,0,1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BlackBossShoot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BlackBullet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AutoAttack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AutoPrepareRange</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AutoAttackRange</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AutoTargetLayer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CoolDown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DashSpeed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DashRotationY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AttackEvents</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ForceMove</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.1]BlackBossAttack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BlackBossDash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[0.2]BlackBossShoot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CharacterName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MaxHealth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MoveSpeed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JumpSpeeds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Skills</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BlackBoss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">黑团团</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eagle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BlackBossShoot
+    <t>10</t>
+  </si>
+  <si>
+    <t>0,0,1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>BlackBossShoot</t>
+  </si>
+  <si>
+    <t>BlackBullet</t>
+  </si>
+  <si>
+    <t>AutoAttack</t>
+  </si>
+  <si>
+    <t>AutoPrepareRange</t>
+  </si>
+  <si>
+    <t>AutoAttackRange</t>
+  </si>
+  <si>
+    <t>AutoTargetLayer</t>
+  </si>
+  <si>
+    <t>CoolDown</t>
+  </si>
+  <si>
+    <t>DashSpeed</t>
+  </si>
+  <si>
+    <t>DashRotationY</t>
+  </si>
+  <si>
+    <t>AttackEvents</t>
+  </si>
+  <si>
+    <t>ForceMove</t>
+  </si>
+  <si>
+    <t>{}</t>
+  </si>
+  <si>
+    <t>[0.1]BlackBossAttack</t>
+  </si>
+  <si>
+    <t>BlackBossDash</t>
+  </si>
+  <si>
+    <t>0.7</t>
+  </si>
+  <si>
+    <t>0.3</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>[0.2]BlackBossShoot</t>
+  </si>
+  <si>
+    <t>CharacterName</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Identity</t>
+  </si>
+  <si>
+    <t>MaxHealth</t>
+  </si>
+  <si>
+    <t>MoveSpeed</t>
+  </si>
+  <si>
+    <t>Mass</t>
+  </si>
+  <si>
+    <t>JumpSpeeds</t>
+  </si>
+  <si>
+    <t>Skills</t>
+  </si>
+  <si>
+    <t>BlackBoss</t>
+  </si>
+  <si>
+    <t>黑团团</t>
+  </si>
+  <si>
+    <t>Eagle</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>BlackBossShoot
 BlackBossDash
 BlackBossDash
 BlackBossAttack</t>
   </si>
   <si>
-    <t xml:space="preserve">Dummy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Global</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Characters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BlackBoss
+    <t>Dummy</t>
+  </si>
+  <si>
+    <t>Shelder</t>
+  </si>
+  <si>
+    <t>盾团</t>
+  </si>
+  <si>
+    <t>Mom</t>
+  </si>
+  <si>
+    <t>Global</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Characters</t>
+  </si>
+  <si>
+    <t>BlackBoss
 Dummy</t>
   </si>
   <si>
-    <t xml:space="preserve">prefabInfo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"Name":"FireBuffExample","ID":2093473897,"Path":"Assets/Prefabs/Buff/FireBuffExample.prefab"}
-{"Name":"IceBuffExample","ID":2737803754,"Path":"Assets/Prefabs/Buff/IceBuffExample.prefab"}
-{"Name":"FireBall","ID":3298020442,"Path":"Assets/Prefabs/Bullet/FireBall.prefab"}
-{"Name":"BlackBoss","ID":3552132377,"Path":"Assets/Prefabs/Characters/BlackBoss.prefab"}
-{"Name":"Baby","ID":3019281079,"Path":"Assets/Prefabs/Charactor/Baby.prefab"}
-{"Name":"Character","ID":4133940207,"Path":"Assets/Prefabs/Charactor/Character.prefab"}
-{"Name":"CharacterExample","ID":504623618,"Path":"Assets/Prefabs/Charactor/CharacterExample.prefab"}
-{"Name":"Eagle","ID":3103489466,"Path":"Assets/Prefabs/Charactor/Eagle.prefab"}
-{"Name":"Mom","ID":328946675,"Path":"Assets/Prefabs/Charactor/Mom.prefab"}
-{"Name":"MyTestPlayer","ID":2239586818,"Path":"Assets/Prefabs/Charactor/MyTestPlayer.prefab"}
-{"Name":"Player","ID":2100708268,"Path":"Assets/Prefabs/Charactor/Player.prefab"}
-{"Name":"EmptyPlayer 1","ID":619005188,"Path":"Assets/Prefabs/CharactorV2/EmptyPlayer 1.prefab"}
-{"Name":"EmptyPlayer","ID":320469304,"Path":"Assets/Prefabs/CharactorV2/EmptyPlayer.prefab"}
-{"Name":"BurnBuff","ID":2235642898,"Path":"Assets/Prefabs/Example/BurnBuff.prefab"}
-{"Name":"EagleExample","ID":3555599939,"Path":"Assets/Prefabs/Example/EagleExample.prefab"}
-{"Name":"FireBallEagleExample","ID":1096054513,"Path":"Assets/Prefabs/Example/FireBallEagleExample.prefab"}
-{"Name":"FireBallMomExample","ID":1681392008,"Path":"Assets/Prefabs/Example/FireBallMomExample.prefab"}
-{"Name":"MomExample","ID":3273369817,"Path":"Assets/Prefabs/Example/MomExample.prefab"}
-{"Name":"PlayerExample","ID":749872214,"Path":"Assets/Prefabs/Example/PlayerExample.prefab"}
-{"Name":"SlowDownBuff","ID":1958464012,"Path":"Assets/Prefabs/Example/SlowDownBuff.prefab"}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EntryPoint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Port</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8080</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gravity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">During</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Speed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OffsetPosition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,0,0.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0,1.3,1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{"Name":"Fire","ID":1556163566,"Path":"Assets/Prefabs/Buffs/Fire.prefab"}
+    <t>prefabInfo</t>
+  </si>
+  <si>
+    <t>{"Name":"Fire","ID":1556163566,"Path":"Assets/Prefabs/Buffs/Fire.prefab"}
 {"Name":"BlackBullet","ID":2553873253,"Path":"Assets/Prefabs/Bullets/BlackBullet.prefab"}
 {"Name":"BlackBoss","ID":3552132377,"Path":"Assets/Prefabs/Characters/BlackBoss.prefab"}
 {"Name":"Dummy","ID":3751740005,"Path":"Assets/Prefabs/Characters/Dummy.prefab"}</t>
+  </si>
+  <si>
+    <t>EntryPoint</t>
+  </si>
+  <si>
+    <t>http://test</t>
+  </si>
+  <si>
+    <t>Port</t>
+  </si>
+  <si>
+    <t>8080</t>
+  </si>
+  <si>
+    <t>Gravity</t>
+  </si>
+  <si>
+    <t>9.8</t>
+  </si>
+  <si>
+    <t>Drag</t>
+  </si>
+  <si>
+    <t>During</t>
+  </si>
+  <si>
+    <t>Speed</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>OffsetPosition</t>
+  </si>
+  <si>
+    <t>0,0,0.2</t>
+  </si>
+  <si>
+    <t>0,1.3,1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -414,7 +388,7 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -422,7 +396,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -430,7 +404,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -438,7 +412,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -446,14 +420,14 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -461,7 +435,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -469,7 +443,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -477,14 +451,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -492,35 +466,35 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -827,156 +801,156 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" xfId="0" applyAlignment="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" xfId="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyAlignment="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyAlignment="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -984,55 +958,55 @@
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="23">
     <dxf>
@@ -1053,19 +1027,19 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
       <border>
@@ -1076,7 +1050,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="0"/>
       </font>
       <fill>
@@ -1118,19 +1092,19 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
       <border>
@@ -1141,7 +1115,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="0"/>
       </font>
       <fill>
@@ -1188,7 +1162,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -1219,13 +1193,13 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
       <border>
@@ -1255,7 +1229,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
       <fill>
@@ -1275,7 +1249,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
       <fill>
@@ -1292,25 +1266,25 @@
     </dxf>
   </dxfs>
   <tableStyles count="3" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" table="0" count="7">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
       <tableStyleElement type="firstColumn" dxfId="3"/>
       <tableStyleElement type="lastColumn" dxfId="2"/>
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="firstColumnStripe"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" table="0" count="7">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" table="0" count="7" xr9:uid="{801A7BB5-8050-D8A3-2EEA-9765A03C72D6}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
       <tableStyleElement type="firstColumn" dxfId="3"/>
       <tableStyleElement type="lastColumn" dxfId="2"/>
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="firstColumnStripe"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" pivot="0" table="0" count="10">
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
       <tableStyleElement type="headerRow" dxfId="22"/>
       <tableStyleElement type="totalRow" dxfId="21"/>
       <tableStyleElement type="firstRowStripe" dxfId="20"/>
@@ -1324,8 +1298,8 @@
     </tableStyle>
   </tableStyles>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1587,7 +1561,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G4"/>
   <sheetViews>
@@ -1595,7 +1569,7 @@
       <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="3" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="25.75" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
@@ -1702,7 +1676,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:O2"/>
   <sheetViews>
@@ -1710,7 +1684,7 @@
       <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1"/>
   <cols>
     <col min="3" max="3" width="20.875" customWidth="1"/>
     <col min="4" max="4" width="25.125" customWidth="1"/>
@@ -1799,22 +1773,22 @@
         <v>9</v>
       </c>
       <c r="I2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" t="s">
         <v>31</v>
-      </c>
-      <c r="J2" t="s">
-        <v>55</v>
       </c>
       <c r="K2" t="s">
         <v>14</v>
       </c>
       <c r="L2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M2" t="s">
         <v>9</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O2" t="s">
         <v>9</v>
@@ -1827,7 +1801,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:K3"/>
   <sheetViews>
@@ -1835,7 +1809,7 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="17.75" customWidth="1"/>
@@ -1852,16 +1826,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
         <v>34</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>35</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>36</v>
-      </c>
-      <c r="E1" t="s">
-        <v>37</v>
       </c>
       <c r="F1" t="s">
         <v>25</v>
@@ -1876,52 +1850,50 @@
         <v>28</v>
       </c>
       <c r="J1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" t="s">
         <v>38</v>
       </c>
-      <c r="K1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="40.5">
+    </row>
+    <row r="2" ht="51" spans="1:9">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
       <c r="E2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" t="s">
         <v>42</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>43</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>32</v>
-      </c>
-      <c r="H2" t="s">
-        <v>33</v>
       </c>
       <c r="I2" t="s">
         <v>9</v>
       </c>
-      <c r="J2"/>
-      <c r="K2"/>
-    </row>
-    <row r="3" spans="1:11" ht="40.5">
+    </row>
+    <row r="3" ht="51" spans="1:11">
       <c r="A3" t="s">
         <v>44</v>
       </c>
       <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -1930,18 +1902,17 @@
         <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G3" t="s">
         <v>9</v>
       </c>
       <c r="H3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I3" t="s">
         <v>9</v>
       </c>
-      <c r="J3"/>
       <c r="K3" t="s">
         <v>45</v>
       </c>
@@ -1953,7 +1924,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:K4"/>
   <sheetViews>
@@ -1961,7 +1932,7 @@
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="21.875" customWidth="1"/>
     <col min="2" max="2" width="13.5" customWidth="1"/>
@@ -2009,12 +1980,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="40.5">
+    <row r="2" ht="51" spans="1:11">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -2023,52 +1994,48 @@
         <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
         <v>14</v>
       </c>
       <c r="H2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J2" t="s">
         <v>56</v>
       </c>
-      <c r="I2" t="s">
-        <v>56</v>
-      </c>
-      <c r="J2" t="s">
-        <v>57</v>
-      </c>
       <c r="K2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" t="s">
         <v>58</v>
       </c>
-      <c r="B3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3" t="s">
-        <v>59</v>
-      </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
-      </c>
-      <c r="J3"/>
+        <v>55</v>
+      </c>
       <c r="K3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2076,28 +2043,25 @@
         <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
+        <v>39</v>
+      </c>
       <c r="F4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" t="s">
         <v>60</v>
       </c>
-      <c r="G4" t="s">
-        <v>30</v>
-      </c>
       <c r="H4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J4" t="s">
         <v>61</v>
       </c>
       <c r="K4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -2107,15 +2071,15 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="17.25" customWidth="1"/>
@@ -2157,7 +2121,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="40" customHeight="1">
+    <row r="2" ht="40" customHeight="1" spans="1:9">
       <c r="A2" t="s">
         <v>70</v>
       </c>
@@ -2211,7 +2175,32 @@
       <c r="H3" t="s">
         <v>76</v>
       </c>
-      <c r="I3"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4">
+        <v>300</v>
+      </c>
+      <c r="F4">
+        <v>6</v>
+      </c>
+      <c r="G4">
+        <v>50</v>
+      </c>
+      <c r="H4">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2220,7 +2209,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -2228,7 +2217,7 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="12.25" customWidth="1"/>
     <col min="2" max="2" width="20.25" customWidth="1"/>
@@ -2236,18 +2225,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="27">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" ht="34" spans="1:2">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2257,7 +2246,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -2265,7 +2254,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="27.375" customWidth="1"/>
     <col min="2" max="2" width="110.125" customWidth="1"/>
@@ -2273,18 +2262,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="409" customHeight="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" ht="409" customHeight="1" spans="1:2">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2294,7 +2283,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -2302,46 +2291,46 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="1"/>
   <cols>
     <col min="2" max="2" width="23.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
         <v>75</v>
@@ -2349,10 +2338,10 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -2362,15 +2351,15 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="18.875" customWidth="1"/>
     <col min="5" max="5" width="21.875" customWidth="1"/>
@@ -2387,22 +2376,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E1" t="s">
         <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H1" t="s">
         <v>25</v>
@@ -2417,10 +2406,10 @@
         <v>28</v>
       </c>
       <c r="L1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -2431,28 +2420,28 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J2" t="s">
         <v>32</v>
-      </c>
-      <c r="H2" t="s">
-        <v>96</v>
-      </c>
-      <c r="I2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" t="s">
-        <v>33</v>
       </c>
       <c r="K2" t="s">
         <v>9</v>
@@ -2461,7 +2450,7 @@
         <v>29</v>
       </c>
       <c r="M2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
